--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xx20081/git/stagministration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC91D34-C56E-1F44-982F-CA788C8369FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3323FE-26F8-834C-98C3-0E29FB1D92E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22780" yWindow="760" windowWidth="20800" windowHeight="19560" activeTab="2" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
+    <workbookView xWindow="22780" yWindow="760" windowWidth="20800" windowHeight="19560" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
   <si>
     <t>Fri</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>EZY860</t>
+  </si>
+  <si>
+    <t>EZY2892</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ECFDEF-FBD5-2044-9BCA-95F863E1A7B7}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1222,6 +1225,9 @@
       <c r="B6" t="s">
         <v>94</v>
       </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
       <c r="D6" s="48">
         <f t="shared" ref="D6" si="0">610.92/6</f>
         <v>101.82</v>
@@ -1397,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97381864-EC41-B24D-93CA-84E6A237A7B4}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,7 +1543,7 @@
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E6" s="47">
         <v>45823.854166666664</v>
@@ -1547,6 +1553,29 @@
       </c>
       <c r="G6" s="47">
         <v>45823.923611111109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="47">
+        <v>45824.430555555555</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="47">
+        <v>45824.506944444445</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977FEF1-B7F1-B84E-82CA-5B7913443D48}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xx20081/git/stagministration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3323FE-26F8-834C-98C3-0E29FB1D92E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467FEB33-88FC-C147-AE81-C161859DFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22780" yWindow="760" windowWidth="20800" windowHeight="19560" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
+    <workbookView xWindow="14560" yWindow="760" windowWidth="29020" windowHeight="19560" activeTab="2" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="116">
   <si>
     <t>Fri</t>
   </si>
@@ -350,15 +350,9 @@
     <t>beds</t>
   </si>
   <si>
-    <t>19 Ivana Buzolića</t>
-  </si>
-  <si>
     <t>Vicka Butorovica 27, Hvar, 21450, Croatia</t>
   </si>
   <si>
-    <t>27 Vicka Butorovica</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -375,6 +369,24 @@
   </si>
   <si>
     <t>EZY2892</t>
+  </si>
+  <si>
+    <t>EZY8595</t>
+  </si>
+  <si>
+    <t>vicka_butorovica</t>
+  </si>
+  <si>
+    <t>ivana_buzolica</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>additional</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ECFDEF-FBD5-2044-9BCA-95F863E1A7B7}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1136,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
@@ -1148,7 +1160,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -1226,7 +1238,7 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="48">
         <f t="shared" ref="D6" si="0">610.92/6</f>
@@ -1369,10 +1381,10 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1406,7 +1418,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
@@ -1442,7 +1454,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
@@ -1465,7 +1477,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -1488,10 +1500,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
@@ -1511,7 +1523,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -1534,10 +1546,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
@@ -1557,10 +1569,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -1585,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977FEF1-B7F1-B84E-82CA-5B7913443D48}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1611,7 @@
     <col min="7" max="7" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1621,10 +1633,13 @@
       <c r="G1" s="48" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -1645,12 +1660,12 @@
         <v>1655.53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -1666,6 +1681,22 @@
       </c>
       <c r="G3" s="48">
         <v>1495.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xx20081/git/stagministration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467FEB33-88FC-C147-AE81-C161859DFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08AE1C9-AD26-7442-B710-36579A05D38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14560" yWindow="760" windowWidth="29020" windowHeight="19560" activeTab="2" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
+    <workbookView xWindow="640" yWindow="760" windowWidth="17800" windowHeight="19560" activeTab="1" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
   <si>
     <t>Fri</t>
   </si>
@@ -387,6 +387,18 @@
   </si>
   <si>
     <t>TBC</t>
+  </si>
+  <si>
+    <t>BA0843</t>
+  </si>
+  <si>
+    <t>BA0842</t>
+  </si>
+  <si>
+    <t>Own booking</t>
+  </si>
+  <si>
+    <t>EZY8600</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1110,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,6 +1262,9 @@
       <c r="F6" t="s">
         <v>96</v>
       </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1282,6 +1297,9 @@
       <c r="B8" t="s">
         <v>90</v>
       </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
       <c r="D8" s="48">
         <f>318.96/3</f>
         <v>106.32</v>
@@ -1292,6 +1310,9 @@
       <c r="F8" t="s">
         <v>93</v>
       </c>
+      <c r="G8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1345,6 +1366,18 @@
       <c r="A11" t="s">
         <v>48</v>
       </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1360,23 +1393,47 @@
       <c r="A14" t="s">
         <v>39</v>
       </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1386,25 +1443,43 @@
       <c r="C18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
         <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97381864-EC41-B24D-93CA-84E6A237A7B4}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,25 +1598,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
       </c>
       <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="47">
+        <v>45820.482638888891</v>
+      </c>
+      <c r="F5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="47">
-        <v>45824.6875</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
       <c r="G5" s="47">
-        <v>45824.760416666664</v>
+        <v>45820.635416666664</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1549,22 +1624,22 @@
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="47">
-        <v>45823.854166666664</v>
+        <v>45824.6875</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G6" s="47">
-        <v>45823.923611111109</v>
+        <v>45824.760416666664</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1572,7 +1647,7 @@
         <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -1581,13 +1656,82 @@
         <v>85</v>
       </c>
       <c r="E7" s="47">
+        <v>45823.854166666664</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="47">
+        <v>45823.923611111109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="47">
         <v>45824.430555555555</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G8" s="47">
         <v>45824.506944444445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="47">
+        <v>45824.690972222219</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="47">
+        <v>45824.760416666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="47">
+        <v>45823.854166666664</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="47">
+        <v>45823.923611111109</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977FEF1-B7F1-B84E-82CA-5B7913443D48}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xx20081/git/stagministration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08AE1C9-AD26-7442-B710-36579A05D38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989F57D1-BB74-2C49-94A2-B426E29912A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="760" windowWidth="17800" windowHeight="19560" activeTab="1" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
+    <workbookView xWindow="640" yWindow="760" windowWidth="17800" windowHeight="19560" activeTab="2" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
   <si>
     <t>Fri</t>
   </si>
@@ -383,12 +383,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>additional</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t>BA0843</t>
   </si>
   <si>
@@ -399,6 +393,24 @@
   </si>
   <si>
     <t>EZY8600</t>
+  </si>
+  <si>
+    <t>buzolic_tome</t>
+  </si>
+  <si>
+    <t>S. Buzolic Tome 17A S. Buzolic Tome 17A, Hvar, Split-Dalmatia County 21450, Croatia</t>
+  </si>
+  <si>
+    <t>HMNDHQNXKA</t>
+  </si>
+  <si>
+    <t>HM9BB2Q58D</t>
+  </si>
+  <si>
+    <t>dajana_ivan</t>
+  </si>
+  <si>
+    <t>Hvar - TBC</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1275,7 @@
         <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1298,7 +1310,7 @@
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="48">
         <f>318.96/3</f>
@@ -1311,7 +1323,7 @@
         <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1367,16 +1379,16 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
         <v>116</v>
       </c>
-      <c r="F11" t="s">
-        <v>118</v>
-      </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,10 +1412,10 @@
         <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1417,10 +1429,10 @@
         <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1444,10 +1456,10 @@
         <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1476,10 +1488,10 @@
         <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97381864-EC41-B24D-93CA-84E6A237A7B4}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1601,7 +1613,7 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
@@ -1693,7 +1705,7 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -1716,7 +1728,7 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
@@ -1741,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977FEF1-B7F1-B84E-82CA-5B7913443D48}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1829,18 +1841,48 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+        <v>121</v>
+      </c>
+      <c r="D4" s="47">
+        <v>45820.666666666664</v>
+      </c>
+      <c r="E4" s="47">
+        <v>45822.416666666664</v>
+      </c>
       <c r="F4">
         <v>4</v>
+      </c>
+      <c r="G4" s="48">
+        <v>226.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="47">
+        <v>45822.666666666664</v>
+      </c>
+      <c r="E5" s="47">
+        <v>45824.416666666664</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="48">
+        <v>562.49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xx20081/git/stagministration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989F57D1-BB74-2C49-94A2-B426E29912A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D98DCF-6A1D-3B48-BBD5-AD3744CE4C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="760" windowWidth="17800" windowHeight="19560" activeTab="2" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
+    <workbookView xWindow="15780" yWindow="760" windowWidth="17800" windowHeight="19560" activeTab="1" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="127">
   <si>
     <t>Fri</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>Hvar - TBC</t>
+  </si>
+  <si>
+    <t>EJU5215</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>EJU5216</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1131,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F20" sqref="F20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,6 +1480,18 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1502,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97381864-EC41-B24D-93CA-84E6A237A7B4}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,25 +1654,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="47">
+        <v>45820.284722222219</v>
+      </c>
+      <c r="F6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="47">
-        <v>45824.6875</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
       <c r="G6" s="47">
-        <v>45824.760416666664</v>
+        <v>45820.361111111109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1659,22 +1680,22 @@
         <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="47">
-        <v>45823.854166666664</v>
+        <v>45824.6875</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G7" s="47">
-        <v>45823.923611111109</v>
+        <v>45824.760416666664</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1682,7 +1703,7 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -1691,13 +1712,13 @@
         <v>85</v>
       </c>
       <c r="E8" s="47">
-        <v>45824.430555555555</v>
+        <v>45823.854166666664</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G8" s="47">
-        <v>45824.506944444445</v>
+        <v>45823.923611111109</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1705,22 +1726,22 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="47">
-        <v>45824.690972222219</v>
+        <v>45824.430555555555</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G9" s="47">
-        <v>45824.760416666664</v>
+        <v>45824.506944444445</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1728,22 +1749,68 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="47">
+        <v>45824.690972222219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="47">
+        <v>45824.760416666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="47">
         <v>45823.854166666664</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G11" s="47">
         <v>45823.923611111109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="47">
+        <v>45824.645833333336</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="47">
+        <v>45824.722222222219</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977FEF1-B7F1-B84E-82CA-5B7913443D48}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xx20081/git/stagministration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D98DCF-6A1D-3B48-BBD5-AD3744CE4C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4514F-9A81-E241-ADCF-4416BDFB882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="760" windowWidth="17800" windowHeight="19560" activeTab="1" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
+    <workbookView xWindow="19400" yWindow="500" windowWidth="17800" windowHeight="19560" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="2" r:id="rId1"/>
     <sheet name="flights" sheetId="3" r:id="rId2"/>
     <sheet name="accommodation" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="timeline" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="132">
   <si>
     <t>Fri</t>
   </si>
@@ -420,13 +421,29 @@
   </si>
   <si>
     <t>EJU5216</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>accomm_cost</t>
+  </si>
+  <si>
+    <t>accomm_repaid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -725,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -793,6 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1128,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ECFDEF-FBD5-2044-9BCA-95F863E1A7B7}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,11 +1158,13 @@
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1161,13 +1181,19 @@
         <v>78</v>
       </c>
       <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1184,14 +1210,20 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="55">
+        <v>100</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>96</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1208,14 +1240,20 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="55">
+        <v>100</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>96</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1232,14 +1270,20 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="55">
+        <v>100</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>96</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1256,14 +1300,20 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="55">
+        <v>100</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>96</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1280,14 +1330,20 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="55">
+        <v>100</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>96</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1302,16 +1358,22 @@
         <v>217.96714285714285</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="55">
+        <v>100</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1328,14 +1390,20 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="55">
+        <v>100</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1352,14 +1420,20 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="55">
+        <v>100</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1376,14 +1450,20 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="55">
+        <v>100</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1393,24 +1473,42 @@
       <c r="C11" t="s">
         <v>114</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="55">
+        <v>100</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="55">
+        <v>100</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="55">
+        <v>100</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1420,14 +1518,20 @@
       <c r="C14" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="55">
+        <v>100</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>116</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1437,24 +1541,42 @@
       <c r="C15" t="s">
         <v>109</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="55">
+        <v>100</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>116</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="55">
+        <v>100</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="55">
+        <v>100</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1464,19 +1586,31 @@
       <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="55">
+        <v>100</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>116</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="55">
+        <v>100</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1486,19 +1620,31 @@
       <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="55">
+        <v>100</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>116</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="55">
+        <v>100</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
         <v>47</v>
       </c>
@@ -1508,10 +1654,16 @@
       <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="55">
+        <v>100</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>116</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1525,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97381864-EC41-B24D-93CA-84E6A237A7B4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="E2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,13 +1749,13 @@
         <v>92</v>
       </c>
       <c r="E3" s="47">
-        <v>45820.246527777781</v>
+        <v>45820.256944444445</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="47">
-        <v>45820.399305555555</v>
+        <v>45820.40625</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1958,6 +2110,750 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC63134-965C-1640-B5CD-CEC637322121}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="47">
+        <v>45820.333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="47">
+        <v>45820.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="47">
+        <v>45820.385416666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47">
+        <v>45820.395833333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="47">
+        <v>45820.416666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47">
+        <v>45820.458333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="47">
+        <v>45820.46875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="47">
+        <v>45820.5</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="47">
+        <v>45820.625</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="47">
+        <v>45820.65625</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="47">
+        <v>45820.6875</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="47">
+        <v>45820.708333333336</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="47">
+        <v>45820.75</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="47">
+        <v>45820.802083333336</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="47">
+        <v>45820.8125</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="47">
+        <v>45821.333333333336</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="E17" s="47"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="47">
+        <v>45821.375</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="47">
+        <v>45821.385416666664</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="47">
+        <v>45821.395833333336</v>
+      </c>
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="47">
+        <v>45821.416666666664</v>
+      </c>
+      <c r="C21" s="47"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="47">
+        <v>45821.458333333336</v>
+      </c>
+      <c r="C22" s="47"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="47">
+        <v>45821.46875</v>
+      </c>
+      <c r="C23" s="47"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="47">
+        <v>45821.5</v>
+      </c>
+      <c r="C24" s="47"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="47">
+        <v>45821.625</v>
+      </c>
+      <c r="C25" s="47"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="47">
+        <v>45821.635416666664</v>
+      </c>
+      <c r="C26" s="47"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="47">
+        <v>45821.645833333336</v>
+      </c>
+      <c r="C27" s="47"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="47">
+        <v>45821.65625</v>
+      </c>
+      <c r="C28" s="47"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="47">
+        <v>45821.6875</v>
+      </c>
+      <c r="C29" s="47"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="47">
+        <v>45821.708333333336</v>
+      </c>
+      <c r="C30" s="47"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="47">
+        <v>45821.75</v>
+      </c>
+      <c r="C31" s="47"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="47">
+        <v>45821.802083333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="47">
+        <v>45821.8125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="47">
+        <f>B17+1</f>
+        <v>45822.333333333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="47">
+        <f t="shared" ref="B35:B51" si="0">B18+1</f>
+        <v>45822.375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.385416666664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.395833333336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.416666666664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.458333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.46875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.635416666664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.645833333336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.65625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.6875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.708333333336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.802083333336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="47">
+        <f t="shared" si="0"/>
+        <v>45822.8125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="47">
+        <f>B34+1</f>
+        <v>45823.333333333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="47">
+        <f t="shared" ref="B52:B72" si="1">B35+1</f>
+        <v>45823.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="47">
+        <f t="shared" si="1"/>
+        <v>45823.385416666664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="47">
+        <f>B38+1</f>
+        <v>45823.416666666664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="47">
+        <f>B39+1</f>
+        <v>45823.458333333336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="47">
+        <f>B40+1</f>
+        <v>45823.46875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="47">
+        <f>B41+1</f>
+        <v>45823.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="47">
+        <f>B42+1</f>
+        <v>45823.625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="47">
+        <f>B43+1</f>
+        <v>45823.635416666664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="47">
+        <f>B44+1</f>
+        <v>45823.645833333336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="47">
+        <f>B45+1</f>
+        <v>45823.65625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="47">
+        <f>B47+1</f>
+        <v>45823.708333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="47">
+        <f>B48+1</f>
+        <v>45823.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="47">
+        <f>B49+1</f>
+        <v>45823.802083333336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="47">
+        <f>B51+1</f>
+        <v>45824.333333333336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="47"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="47"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="47"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="47"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="47"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930A0A7F-E09A-C845-B7D6-532C37B7CEF6}">
   <dimension ref="A1:R58"/>
   <sheetViews>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xx20081/git/stagministration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4514F-9A81-E241-ADCF-4416BDFB882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B07E831-0E81-D041-97DE-9DD2984DD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19400" yWindow="500" windowWidth="17800" windowHeight="19560" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="accommodation" sheetId="4" r:id="rId3"/>
     <sheet name="timeline" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="totals" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="147">
   <si>
     <t>Fri</t>
   </si>
@@ -423,9 +424,6 @@
     <t>EJU5216</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -436,6 +434,54 @@
   </si>
   <si>
     <t>accomm_repaid</t>
+  </si>
+  <si>
+    <t>per_person</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>boats</t>
+  </si>
+  <si>
+    <t>Ferry: Split-Hvar</t>
+  </si>
+  <si>
+    <t>Ferry: Hvar-Split</t>
+  </si>
+  <si>
+    <t>datetime_from</t>
+  </si>
+  <si>
+    <t>datetime_to</t>
+  </si>
+  <si>
+    <t>Boats x4</t>
+  </si>
+  <si>
+    <t>Stajun Hvar seafood resaurant</t>
+  </si>
+  <si>
+    <t>Carpe Diem Beach Island</t>
+  </si>
+  <si>
+    <t>Hvar town bar crawl</t>
+  </si>
+  <si>
+    <t>Windmill house BBQ &amp; games</t>
+  </si>
+  <si>
+    <t>OCEDY3</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>OCEDY4</t>
   </si>
 </sst>
 </file>
@@ -792,6 +838,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,7 +857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1149,7 +1195,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,10 +1227,10 @@
         <v>78</v>
       </c>
       <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
         <v>130</v>
-      </c>
-      <c r="G1" t="s">
-        <v>131</v>
       </c>
       <c r="H1" t="s">
         <v>87</v>
@@ -1210,7 +1256,7 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="49">
         <v>100</v>
       </c>
       <c r="G2" t="b">
@@ -1240,7 +1286,7 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="49">
         <v>100</v>
       </c>
       <c r="G3" t="b">
@@ -1270,7 +1316,7 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="49">
         <v>100</v>
       </c>
       <c r="G4" t="b">
@@ -1300,7 +1346,7 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="49">
         <v>100</v>
       </c>
       <c r="G5" t="b">
@@ -1330,11 +1376,11 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="49">
         <v>100</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>96</v>
@@ -1360,7 +1406,7 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="49">
         <v>100</v>
       </c>
       <c r="G7" t="b">
@@ -1390,11 +1436,11 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="49">
         <v>100</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>93</v>
@@ -1420,11 +1466,11 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="49">
         <v>100</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>93</v>
@@ -1450,7 +1496,7 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="49">
         <v>100</v>
       </c>
       <c r="G10" t="b">
@@ -1473,7 +1519,7 @@
       <c r="C11" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="49">
         <v>100</v>
       </c>
       <c r="G11" t="b">
@@ -1490,22 +1536,34 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="55">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="49">
         <v>100</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="49">
         <v>100</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1518,7 +1576,7 @@
       <c r="C14" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="49">
         <v>100</v>
       </c>
       <c r="G14" t="b">
@@ -1541,11 +1599,11 @@
       <c r="C15" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="49">
         <v>100</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>116</v>
@@ -1558,18 +1616,18 @@
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="49">
         <v>100</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="49">
         <v>100</v>
       </c>
       <c r="G17" t="b">
@@ -1586,7 +1644,7 @@
       <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="49">
         <v>100</v>
       </c>
       <c r="G18" t="b">
@@ -1603,7 +1661,7 @@
       <c r="A19" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="49">
         <v>100</v>
       </c>
       <c r="G19" t="b">
@@ -1620,7 +1678,7 @@
       <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="49">
         <v>100</v>
       </c>
       <c r="G20" t="b">
@@ -1637,11 +1695,11 @@
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="49">
         <v>100</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1654,7 +1712,7 @@
       <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="49">
         <v>100</v>
       </c>
       <c r="G22" t="b">
@@ -1675,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97381864-EC41-B24D-93CA-84E6A237A7B4}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="E2:G12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1829,25 +1887,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="47">
+        <v>45819.618055555555</v>
+      </c>
+      <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="47">
-        <v>45824.6875</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
       <c r="G7" s="47">
-        <v>45824.760416666664</v>
+        <v>45820.597222222219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1855,22 +1913,22 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="47">
-        <v>45823.854166666664</v>
+        <v>45824.6875</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G8" s="47">
-        <v>45823.923611111109</v>
+        <v>45824.760416666664</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1878,7 +1936,7 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
@@ -1887,13 +1945,13 @@
         <v>85</v>
       </c>
       <c r="E9" s="47">
-        <v>45824.430555555555</v>
+        <v>45823.854166666664</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" s="47">
-        <v>45824.506944444445</v>
+        <v>45823.923611111109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1901,22 +1959,22 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="47">
-        <v>45824.690972222219</v>
+        <v>45824.430555555555</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G10" s="47">
-        <v>45824.760416666664</v>
+        <v>45824.506944444445</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1924,22 +1982,22 @@
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="47">
-        <v>45823.854166666664</v>
+        <v>45824.690972222219</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G11" s="47">
-        <v>45823.923611111109</v>
+        <v>45824.760416666664</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1947,7 +2005,7 @@
         <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
@@ -1956,13 +2014,59 @@
         <v>85</v>
       </c>
       <c r="E12" s="47">
+        <v>45823.854166666664</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="47">
+        <v>45823.923611111109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="47">
         <v>45824.645833333336</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G13" s="47">
         <v>45824.722222222219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="47">
+        <v>45824.777777777781</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="47">
+        <v>45826.215277777781</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +2079,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2111,741 +2215,944 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC63134-965C-1640-B5CD-CEC637322121}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="47">
         <v>45820.333333333336</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="47">
+        <v>45820.333333333336</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="47">
         <v>45820.375</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="47">
+        <v>45820.375</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="47">
         <v>45820.385416666664</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="47">
+        <v>45820.385416666664</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="47">
         <v>45820.395833333336</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="47">
+        <v>45820.395833333336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="47">
         <v>45820.416666666664</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="47">
+        <v>45820.416666666664</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="47">
         <v>45820.458333333336</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="47">
+        <v>45820.458333333336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="47">
         <v>45820.46875</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="47">
+        <v>45820.46875</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="47">
         <v>45820.5</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="47">
+        <v>45820.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="47">
         <v>45820.625</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="47">
+        <v>45820.625</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="47">
         <v>45820.65625</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="47">
+        <v>45820.65625</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="47">
         <v>45820.6875</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="47">
+        <v>45820.6875</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="47">
         <v>45820.708333333336</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="47">
+        <v>45820.708333333336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="47">
         <v>45820.75</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="47">
+        <v>45820.75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="47">
         <v>45820.802083333336</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="47">
+        <v>45820.802083333336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="47"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="47">
         <v>45820.8125</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="47">
+        <v>45820.8125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="47"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="47">
         <v>45821.333333333336</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="47">
+        <v>45821.333333333336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="47">
         <v>45821.375</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="47">
+        <v>45821.375</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="47"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="47">
         <v>45821.385416666664</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="47">
+        <v>45821.385416666664</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="47">
         <v>45821.395833333336</v>
       </c>
-      <c r="C20" s="47"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="47">
+        <v>45821.395833333336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="47">
         <v>45821.416666666664</v>
       </c>
-      <c r="C21" s="47"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="47">
+        <v>45821.416666666664</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="47">
         <v>45821.458333333336</v>
       </c>
-      <c r="C22" s="47"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="47">
+        <v>45821.458333333336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="47">
         <v>45821.46875</v>
       </c>
-      <c r="C23" s="47"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="47">
+        <v>45821.46875</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="47">
         <v>45821.5</v>
       </c>
-      <c r="C24" s="47"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="47">
+        <v>45821.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="47">
         <v>45821.625</v>
       </c>
-      <c r="C25" s="47"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="47">
+        <v>45821.625</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="47">
         <v>45821.635416666664</v>
       </c>
-      <c r="C26" s="47"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="47">
+        <v>45821.635416666664</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="47">
         <v>45821.645833333336</v>
       </c>
-      <c r="C27" s="47"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="47">
+        <v>45821.645833333336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="47">
         <v>45821.65625</v>
       </c>
-      <c r="C28" s="47"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="47">
+        <v>45821.65625</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="47">
         <v>45821.6875</v>
       </c>
-      <c r="C29" s="47"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="47">
+        <v>45821.6875</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="47">
         <v>45821.708333333336</v>
       </c>
-      <c r="C30" s="47"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="47">
+        <v>45821.708333333336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="47">
         <v>45821.75</v>
       </c>
-      <c r="C31" s="47"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="47">
+        <v>45821.75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="47">
         <v>45821.802083333336</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="47">
+        <v>45821.802083333336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="47">
         <v>45821.8125</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="47">
+        <v>45821.8125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="47">
+        <v>45823.326388888891</v>
+      </c>
+      <c r="C34" s="47">
+        <v>45823.326388888891</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="47">
+        <v>45823.385416666664</v>
+      </c>
+      <c r="C35" s="47">
+        <v>45823.385416666664</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="47">
+        <v>45823.427083333336</v>
+      </c>
+      <c r="C36" s="47">
+        <v>45823.427083333336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="47">
+        <v>45823.465277777781</v>
+      </c>
+      <c r="C37" s="47">
+        <v>45823.465277777781</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="47">
+        <v>45823.46875</v>
+      </c>
+      <c r="C38" s="47">
+        <v>45823.46875</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="47">
+        <v>45823.5</v>
+      </c>
+      <c r="C39" s="47">
+        <v>45823.5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="47">
+        <v>45823.520833333336</v>
+      </c>
+      <c r="C40" s="47">
+        <v>45823.520833333336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="47">
+        <v>45823.552083333336</v>
+      </c>
+      <c r="C41" s="47">
+        <v>45823.552083333336</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="47">
+        <v>45823.607638888891</v>
+      </c>
+      <c r="C42" s="47">
+        <v>45823.607638888891</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="47">
+        <v>45823.697916666664</v>
+      </c>
+      <c r="C43" s="47">
+        <v>45823.697916666664</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="47">
+        <v>45823.708333333336</v>
+      </c>
+      <c r="C44" s="47">
+        <v>45823.708333333336</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="47">
+        <v>45823.777777777781</v>
+      </c>
+      <c r="C45" s="47">
+        <v>45823.777777777781</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="47">
+        <v>45823.798611111109</v>
+      </c>
+      <c r="C46" s="47">
+        <v>45823.798611111109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="47">
+        <v>45823.854166666664</v>
+      </c>
+      <c r="C47" s="47">
+        <v>45823.854166666664</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="47">
+        <v>45824.274305555555</v>
+      </c>
+      <c r="C48" s="47">
+        <v>45824.274305555555</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="47">
+        <v>45824.326388888891</v>
+      </c>
+      <c r="C49" s="47">
+        <v>45824.326388888891</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="47">
+        <v>45824.427083333336</v>
+      </c>
+      <c r="C50" s="47">
+        <v>45824.427083333336</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="47">
+        <v>45824.465277777781</v>
+      </c>
+      <c r="C51" s="47">
+        <v>45824.465277777781</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="47">
+        <v>45824.46875</v>
+      </c>
+      <c r="C52" s="47">
+        <v>45824.46875</v>
+      </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="47">
+        <v>45824.479166666664</v>
+      </c>
+      <c r="C53" s="47">
+        <v>45824.479166666664</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="47">
+        <v>45824.5</v>
+      </c>
+      <c r="C54" s="47">
+        <v>45824.5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="47">
+        <v>45824.510416666664</v>
+      </c>
+      <c r="C55" s="47">
+        <v>45824.510416666664</v>
+      </c>
+      <c r="D55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="47">
+        <v>45824.520833333336</v>
+      </c>
+      <c r="C56" s="47">
+        <v>45824.520833333336</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="47">
+        <v>45824.53125</v>
+      </c>
+      <c r="C57" s="47">
+        <v>45824.53125</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="47">
+        <v>45824.552083333336</v>
+      </c>
+      <c r="C58" s="47">
+        <v>45824.552083333336</v>
+      </c>
+      <c r="D58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="47">
+        <v>45821.375</v>
+      </c>
+      <c r="C59" s="47">
+        <v>45821.75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="47">
+        <v>45821.833333333336</v>
+      </c>
+      <c r="C60" s="47">
+        <v>45821.958333333336</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="47">
-        <f>B17+1</f>
-        <v>45822.333333333336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="47">
-        <f t="shared" ref="B35:B51" si="0">B18+1</f>
-        <v>45822.375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.385416666664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.395833333336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.416666666664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.458333333336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.46875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="47">
-        <f t="shared" si="0"/>
+      <c r="B61" s="47">
         <v>45822.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.635416666664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.645833333336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.65625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.6875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.708333333336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.802083333336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="47">
-        <f t="shared" si="0"/>
-        <v>45822.8125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="47">
-        <f>B34+1</f>
-        <v>45823.333333333336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="47">
-        <f t="shared" ref="B52:B72" si="1">B35+1</f>
-        <v>45823.375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="47">
-        <f t="shared" si="1"/>
-        <v>45823.385416666664</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="47">
-        <f>B38+1</f>
-        <v>45823.416666666664</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="47">
-        <f>B39+1</f>
-        <v>45823.458333333336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="47">
-        <f>B40+1</f>
-        <v>45823.46875</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="47">
-        <f>B41+1</f>
-        <v>45823.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="47">
-        <f>B42+1</f>
-        <v>45823.625</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="47">
-        <f>B43+1</f>
-        <v>45823.635416666664</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="47">
-        <f>B44+1</f>
-        <v>45823.645833333336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="47">
-        <f>B45+1</f>
-        <v>45823.65625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="47">
+        <v>45822.916666666664</v>
+      </c>
+      <c r="D61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62" s="47">
-        <f>B47+1</f>
-        <v>45823.708333333336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45820.75</v>
+      </c>
+      <c r="C62" s="47">
+        <v>45821.125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63" s="47">
-        <f>B48+1</f>
+        <v>45823.583333333336</v>
+      </c>
+      <c r="C63" s="47">
         <v>45823.75</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="47">
-        <f>B49+1</f>
-        <v>45823.802083333336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="47">
-        <f>B51+1</f>
-        <v>45824.333333333336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
+      <c r="D63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="47"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
+      <c r="C68" s="47"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="47"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
+      <c r="C69" s="47"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="47"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
+      <c r="C70" s="47"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="47"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="47"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>4</v>
-      </c>
+      <c r="C71" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3273,20 +3580,20 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="21"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="Q15" s="20"/>
@@ -3869,4 +4176,59 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9150D697-D2C6-2E46-A670-44ECF4951E97}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1">
+        <f>SUM(accommodation!G2:G5)</f>
+        <v>3940.59</v>
+      </c>
+      <c r="C2" s="40">
+        <f>B2/21</f>
+        <v>187.64714285714285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="1">
+        <f>88.4*3 + 106.8</f>
+        <v>372.00000000000006</v>
+      </c>
+      <c r="C3" s="40">
+        <f>B3/12</f>
+        <v>31.000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xx20081/git/stagministration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B07E831-0E81-D041-97DE-9DD2984DD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119959F7-28BC-C940-8487-8B4D35413E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="500" windowWidth="17800" windowHeight="19560" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
+    <workbookView xWindow="19400" yWindow="500" windowWidth="17800" windowHeight="19560" activeTab="5" xr2:uid="{11880704-74B1-0C47-B6DD-02B4FDA2AC38}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="148">
   <si>
     <t>Fri</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>OCEDY4</t>
+  </si>
+  <si>
+    <t>excess</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ECFDEF-FBD5-2044-9BCA-95F863E1A7B7}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -4180,10 +4183,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9150D697-D2C6-2E46-A670-44ECF4951E97}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4191,7 +4194,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -4201,8 +4204,11 @@
       <c r="C1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -4214,8 +4220,12 @@
         <f>B2/21</f>
         <v>187.64714285714285</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="40">
+        <f>B2-(21*100)</f>
+        <v>1840.5900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -4226,6 +4236,10 @@
       <c r="C3" s="40">
         <f>B3/12</f>
         <v>31.000000000000004</v>
+      </c>
+      <c r="D3" s="40">
+        <f>B3</f>
+        <v>372.00000000000006</v>
       </c>
     </row>
   </sheetData>
